--- a/covidnew_tw.xlsx
+++ b/covidnew_tw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -686,6 +686,15 @@
   </si>
   <si>
     <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4190,9 +4199,51 @@
         <v>223</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>224</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>225</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>226</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
         <v>0</v>
       </c>
     </row>
